--- a/Task6/UnitTests/bin/Debug/saverTest.xlsx
+++ b/Task6/UnitTests/bin/Debug/saverTest.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
-    <customWorkbookView name="admin - Личное представление" guid="{33FFE8DE-D81B-4678-9E38-CC6DDEC99673}" mergeInterval="0" personalView="1" xWindow="607" yWindow="131" windowWidth="381" windowHeight="398" activeSheetId="1"/>
+    <customWorkbookView name="admin - Личное представление" guid="{AD470C2D-7A94-4853-90F2-1C71F0E929A9}" mergeInterval="0" personalView="1" xWindow="607" yWindow="131" windowWidth="381" windowHeight="398" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -93,8 +93,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{79D5FDD3-4C85-41F5-8DA5-A240AD01D04C}">
-  <header guid="{79D5FDD3-4C85-41F5-8DA5-A240AD01D04C}" dateTime="2021-01-16T15:43:58" maxSheetId="3" userName="admin" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{85E592E5-CA4E-404F-8213-342F33A64018}">
+  <header guid="{85E592E5-CA4E-404F-8213-342F33A64018}" dateTime="2021-01-17T15:44:01" maxSheetId="3" userName="admin" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -109,8 +109,8 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
-  <userInfo guid="{79D5FDD3-4C85-41F5-8DA5-A240AD01D04C}" name="admin" id="-953922197" dateTime="2021-01-16T15:43:58"/>
-  <userInfo guid="{79D5FDD3-4C85-41F5-8DA5-A240AD01D04C}" name="admin" id="-953921860" dateTime="2021-01-16T15:44:04"/>
+  <userInfo guid="{85E592E5-CA4E-404F-8213-342F33A64018}" name="admin" id="-953895752" dateTime="2021-01-17T15:44:02"/>
+  <userInfo guid="{85E592E5-CA4E-404F-8213-342F33A64018}" name="admin" id="-953895314" dateTime="2021-01-17T15:44:09"/>
 </users>
 </file>
 
@@ -405,7 +405,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{33FFE8DE-D81B-4678-9E38-CC6DDEC99673}">
+    <customSheetView guid="{AD470C2D-7A94-4853-90F2-1C71F0E929A9}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -422,7 +422,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{33FFE8DE-D81B-4678-9E38-CC6DDEC99673}">
+    <customSheetView guid="{AD470C2D-7A94-4853-90F2-1C71F0E929A9}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
